--- a/src/test/input/used/RSM/RSM-Update 0526.xlsx
+++ b/src/test/input/used/RSM/RSM-Update 0526.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse_workspace\LC_GEN\src\test\input\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4DE995-1C7A-43B8-AE72-BC4CB4F0D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E5B58-BD5C-4BC6-8CDF-9971D766072A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="B4-rsm" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B4-rsm'!$A$1:$IV$410</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4741" uniqueCount="627">
   <si>
     <t>API type(N/E)</t>
   </si>
@@ -1169,9 +1172,6 @@
     <t>Get Fee sharing rule (New)</t>
   </si>
   <si>
-    <t>GET /v2/fee-sharing-rule(fee-sharing-rule-ref)</t>
-  </si>
-  <si>
     <t>Card Code</t>
   </si>
   <si>
@@ -1921,6 +1921,14 @@
   </si>
   <si>
     <t>Field Name</t>
+  </si>
+  <si>
+    <t>GET /v2/fee-sharing-rule/(fee-sharing-rule-ref)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3765,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV410"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="A360" sqref="A360:XFD360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.59765625" defaultRowHeight="14.5" customHeight="1"/>
@@ -3782,7 +3790,7 @@
     <col min="9" max="9" width="11.73046875" style="1" customWidth="1"/>
     <col min="10" max="10" width="38.86328125" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.46484375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="184.265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="70.06640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="41.73046875" style="1" customWidth="1"/>
     <col min="14" max="14" width="43.59765625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.59765625" style="1" customWidth="1"/>
@@ -3800,10 +3808,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="82" t="s">
+        <v>623</v>
+      </c>
+      <c r="E1" s="82" t="s">
         <v>624</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>625</v>
       </c>
       <c r="F1" s="83" t="s">
         <v>3</v>
@@ -11586,8 +11594,8 @@
       <c r="H161" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I161" s="21" t="s">
-        <v>19</v>
+      <c r="I161" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J161" s="28" t="str">
         <f t="shared" si="9"/>
@@ -11634,8 +11642,8 @@
       <c r="H162" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I162" s="21" t="s">
-        <v>19</v>
+      <c r="I162" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J162" s="28" t="str">
         <f t="shared" si="9"/>
@@ -11682,8 +11690,8 @@
       <c r="H163" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I163" s="21" t="s">
-        <v>19</v>
+      <c r="I163" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J163" s="28" t="str">
         <f t="shared" si="9"/>
@@ -11730,8 +11738,8 @@
       <c r="H164" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I164" s="21" t="s">
-        <v>19</v>
+      <c r="I164" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J164" s="28" t="str">
         <f t="shared" si="9"/>
@@ -11874,8 +11882,8 @@
       <c r="H167" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I167" s="21" t="s">
-        <v>19</v>
+      <c r="I167" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J167" s="28" t="str">
         <f t="shared" si="9"/>
@@ -11922,8 +11930,8 @@
       <c r="H168" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I168" s="21" t="s">
-        <v>19</v>
+      <c r="I168" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J168" s="28" t="str">
         <f t="shared" si="9"/>
@@ -13093,7 +13101,7 @@
         <v>24</v>
       </c>
       <c r="I192" s="43" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="J192" s="45" t="str">
         <f t="shared" si="10"/>
@@ -17314,7 +17322,7 @@
         <v>18</v>
       </c>
       <c r="I280" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J280" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17322,7 +17330,7 @@
       </c>
       <c r="K280" s="58"/>
       <c r="L280" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M280" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17362,7 +17370,7 @@
         <v>18</v>
       </c>
       <c r="I281" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J281" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17370,7 +17378,7 @@
       </c>
       <c r="K281" s="59"/>
       <c r="L281" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M281" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17410,7 +17418,7 @@
         <v>18</v>
       </c>
       <c r="I282" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J282" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17418,7 +17426,7 @@
       </c>
       <c r="K282" s="59"/>
       <c r="L282" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M282" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17458,7 +17466,7 @@
         <v>18</v>
       </c>
       <c r="I283" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J283" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17466,7 +17474,7 @@
       </c>
       <c r="K283" s="59"/>
       <c r="L283" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M283" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17506,7 +17514,7 @@
         <v>18</v>
       </c>
       <c r="I284" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J284" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17514,7 +17522,7 @@
       </c>
       <c r="K284" s="59"/>
       <c r="L284" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M284" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17554,7 +17562,7 @@
         <v>18</v>
       </c>
       <c r="I285" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J285" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17562,7 +17570,7 @@
       </c>
       <c r="K285" s="59"/>
       <c r="L285" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M285" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17602,7 +17610,7 @@
         <v>18</v>
       </c>
       <c r="I286" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J286" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17610,7 +17618,7 @@
       </c>
       <c r="K286" s="59"/>
       <c r="L286" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M286" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17650,7 +17658,7 @@
         <v>18</v>
       </c>
       <c r="I287" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J287" s="10" t="str">
         <f t="shared" si="19"/>
@@ -17658,7 +17666,7 @@
       </c>
       <c r="K287" s="59"/>
       <c r="L287" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M287" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17698,14 +17706,14 @@
         <v>18</v>
       </c>
       <c r="I288" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J288" s="10" t="s">
         <v>373</v>
       </c>
       <c r="K288" s="59"/>
       <c r="L288" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M288" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17745,7 +17753,7 @@
         <v>24</v>
       </c>
       <c r="I289" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J289" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E289," ","-")))</f>
@@ -17753,7 +17761,7 @@
       </c>
       <c r="K289" s="59"/>
       <c r="L289" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M289" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17793,14 +17801,14 @@
         <v>18</v>
       </c>
       <c r="I290" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J290" s="10" t="s">
         <v>360</v>
       </c>
       <c r="K290" s="59"/>
       <c r="L290" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M290" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17840,7 +17848,7 @@
         <v>18</v>
       </c>
       <c r="I291" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J291" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E291," ","-")))</f>
@@ -17848,7 +17856,7 @@
       </c>
       <c r="K291" s="59"/>
       <c r="L291" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M291" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17888,7 +17896,7 @@
         <v>24</v>
       </c>
       <c r="I292" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J292" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E292," ","-")))</f>
@@ -17896,7 +17904,7 @@
       </c>
       <c r="K292" s="59"/>
       <c r="L292" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M292" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17936,14 +17944,14 @@
         <v>18</v>
       </c>
       <c r="I293" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J293" s="10" t="s">
         <v>365</v>
       </c>
       <c r="K293" s="59"/>
       <c r="L293" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M293" s="14" t="str">
         <f t="shared" si="16"/>
@@ -17983,7 +17991,7 @@
         <v>367</v>
       </c>
       <c r="I294" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J294" s="10" t="str">
         <f t="shared" ref="J294:J325" si="20">CONCATENATE("twct-",LOWER(SUBSTITUTE(E294," ","-")))</f>
@@ -17991,7 +17999,7 @@
       </c>
       <c r="K294" s="60"/>
       <c r="L294" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M294" s="14" t="str">
         <f t="shared" si="16"/>
@@ -18031,7 +18039,7 @@
         <v>18</v>
       </c>
       <c r="I295" s="56" t="s">
-        <v>19</v>
+        <v>626</v>
       </c>
       <c r="J295" s="11" t="str">
         <f t="shared" si="20"/>
@@ -18041,7 +18049,7 @@
         <v>59</v>
       </c>
       <c r="L295" s="10" t="s">
-        <v>375</v>
+        <v>625</v>
       </c>
       <c r="M295" s="14" t="str">
         <f t="shared" si="16"/>
@@ -18069,10 +18077,10 @@
         <v>229</v>
       </c>
       <c r="E296" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F296" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G296" s="33" t="s">
         <v>272</v>
@@ -18117,10 +18125,10 @@
         <v>229</v>
       </c>
       <c r="E297" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F297" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G297" s="33" t="s">
         <v>26</v>
@@ -18158,7 +18166,7 @@
         <v>227</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C298" s="31" t="s">
         <v>229</v>
@@ -18167,10 +18175,10 @@
         <v>229</v>
       </c>
       <c r="E298" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F298" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G298" s="33" t="s">
         <v>272</v>
@@ -18206,7 +18214,7 @@
         <v>227</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C299" s="31" t="s">
         <v>229</v>
@@ -18215,10 +18223,10 @@
         <v>229</v>
       </c>
       <c r="E299" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F299" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G299" s="33" t="s">
         <v>26</v>
@@ -18265,10 +18273,10 @@
         <v>229</v>
       </c>
       <c r="E300" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F300" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G300" s="33" t="s">
         <v>272</v>
@@ -18313,10 +18321,10 @@
         <v>229</v>
       </c>
       <c r="E301" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F301" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G301" s="33" t="s">
         <v>26</v>
@@ -18363,10 +18371,10 @@
         <v>229</v>
       </c>
       <c r="E302" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F302" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G302" s="33" t="s">
         <v>272</v>
@@ -18411,10 +18419,10 @@
         <v>229</v>
       </c>
       <c r="E303" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F303" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G303" s="33" t="s">
         <v>26</v>
@@ -18461,10 +18469,10 @@
         <v>229</v>
       </c>
       <c r="E304" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F304" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G304" s="33" t="s">
         <v>272</v>
@@ -18509,10 +18517,10 @@
         <v>229</v>
       </c>
       <c r="E305" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F305" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G305" s="33" t="s">
         <v>26</v>
@@ -18550,7 +18558,7 @@
         <v>227</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C306" s="31" t="s">
         <v>229</v>
@@ -18559,10 +18567,10 @@
         <v>229</v>
       </c>
       <c r="E306" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F306" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G306" s="33" t="s">
         <v>272</v>
@@ -18598,7 +18606,7 @@
         <v>227</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C307" s="31" t="s">
         <v>229</v>
@@ -18607,10 +18615,10 @@
         <v>229</v>
       </c>
       <c r="E307" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F307" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G307" s="33" t="s">
         <v>26</v>
@@ -18657,10 +18665,10 @@
         <v>229</v>
       </c>
       <c r="E308" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F308" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G308" s="33" t="s">
         <v>272</v>
@@ -18668,8 +18676,8 @@
       <c r="H308" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I308" s="71" t="s">
-        <v>19</v>
+      <c r="I308" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J308" s="28" t="str">
         <f t="shared" si="20"/>
@@ -18705,10 +18713,10 @@
         <v>229</v>
       </c>
       <c r="E309" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F309" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G309" s="33" t="s">
         <v>26</v>
@@ -18716,8 +18724,8 @@
       <c r="H309" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I309" s="71" t="s">
-        <v>19</v>
+      <c r="I309" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J309" s="45" t="str">
         <f t="shared" si="20"/>
@@ -18755,10 +18763,10 @@
         <v>229</v>
       </c>
       <c r="E310" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F310" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G310" s="33" t="s">
         <v>272</v>
@@ -18803,10 +18811,10 @@
         <v>229</v>
       </c>
       <c r="E311" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F311" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G311" s="33" t="s">
         <v>26</v>
@@ -18853,10 +18861,10 @@
         <v>229</v>
       </c>
       <c r="E312" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F312" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G312" s="33" t="s">
         <v>272</v>
@@ -18901,10 +18909,10 @@
         <v>229</v>
       </c>
       <c r="E313" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F313" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G313" s="33" t="s">
         <v>26</v>
@@ -18951,10 +18959,10 @@
         <v>229</v>
       </c>
       <c r="E314" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F314" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G314" s="33" t="s">
         <v>272</v>
@@ -18999,10 +19007,10 @@
         <v>229</v>
       </c>
       <c r="E315" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F315" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G315" s="33" t="s">
         <v>26</v>
@@ -19040,19 +19048,19 @@
         <v>227</v>
       </c>
       <c r="B316" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C316" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C316" s="74" t="s">
+      <c r="D316" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="E316" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="D316" s="74" t="s">
+      <c r="F316" s="33" t="s">
         <v>381</v>
-      </c>
-      <c r="E316" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="F316" s="33" t="s">
-        <v>382</v>
       </c>
       <c r="G316" s="33" t="s">
         <v>26</v>
@@ -19071,7 +19079,7 @@
         <v>27</v>
       </c>
       <c r="L316" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M316" s="35" t="str">
         <f t="shared" si="16"/>
@@ -19090,19 +19098,19 @@
         <v>227</v>
       </c>
       <c r="B317" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C317" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C317" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D317" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E317" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F317" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G317" s="33" t="s">
         <v>115</v>
@@ -19119,7 +19127,7 @@
       </c>
       <c r="K317" s="75"/>
       <c r="L317" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M317" s="35" t="str">
         <f t="shared" si="16"/>
@@ -19138,22 +19146,22 @@
         <v>227</v>
       </c>
       <c r="B318" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C318" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C318" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D318" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E318" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F318" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G318" s="33" t="s">
         <v>385</v>
-      </c>
-      <c r="F318" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="G318" s="33" t="s">
-        <v>386</v>
       </c>
       <c r="H318" s="33" t="s">
         <v>18</v>
@@ -19169,7 +19177,7 @@
         <v>59</v>
       </c>
       <c r="L318" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M318" s="35" t="str">
         <f t="shared" si="16"/>
@@ -19188,19 +19196,19 @@
         <v>227</v>
       </c>
       <c r="B319" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C319" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C319" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D319" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E319" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F319" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G319" s="33" t="s">
         <v>176</v>
@@ -19217,7 +19225,7 @@
       </c>
       <c r="K319" s="76"/>
       <c r="L319" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M319" s="35" t="str">
         <f t="shared" si="16"/>
@@ -19236,22 +19244,22 @@
         <v>227</v>
       </c>
       <c r="B320" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C320" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C320" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D320" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E320" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="F320" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G320" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="F320" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G320" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="H320" s="33" t="s">
         <v>18</v>
@@ -19265,7 +19273,7 @@
       </c>
       <c r="K320" s="77"/>
       <c r="L320" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M320" s="35" t="str">
         <f t="shared" si="16"/>
@@ -19284,22 +19292,22 @@
         <v>227</v>
       </c>
       <c r="B321" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C321" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C321" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D321" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E321" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="F321" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="G321" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="F321" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="G321" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="H321" s="33" t="s">
         <v>18</v>
@@ -19313,7 +19321,7 @@
       </c>
       <c r="K321" s="78"/>
       <c r="L321" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M321" s="35" t="str">
         <f t="shared" si="16"/>
@@ -19332,22 +19340,22 @@
         <v>227</v>
       </c>
       <c r="B322" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C322" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C322" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D322" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E322" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F322" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G322" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H322" s="33" t="s">
         <v>18</v>
@@ -19363,7 +19371,7 @@
         <v>59</v>
       </c>
       <c r="L322" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M322" s="35" t="str">
         <f t="shared" ref="M322:M385" si="21">B322</f>
@@ -19382,22 +19390,22 @@
         <v>227</v>
       </c>
       <c r="B323" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C323" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C323" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D323" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E323" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F323" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="G323" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="F323" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="G323" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="H323" s="33" t="s">
         <v>18</v>
@@ -19411,7 +19419,7 @@
       </c>
       <c r="K323" s="76"/>
       <c r="L323" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M323" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19430,22 +19438,22 @@
         <v>227</v>
       </c>
       <c r="B324" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C324" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C324" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D324" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E324" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F324" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G324" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H324" s="33" t="s">
         <v>18</v>
@@ -19459,7 +19467,7 @@
       </c>
       <c r="K324" s="77"/>
       <c r="L324" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M324" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19478,13 +19486,13 @@
         <v>227</v>
       </c>
       <c r="B325" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C325" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C325" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D325" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E325" s="33" t="s">
         <v>31</v>
@@ -19493,7 +19501,7 @@
         <v>31</v>
       </c>
       <c r="G325" s="33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H325" s="33" t="s">
         <v>18</v>
@@ -19507,7 +19515,7 @@
       </c>
       <c r="K325" s="77"/>
       <c r="L325" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M325" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19526,22 +19534,22 @@
         <v>227</v>
       </c>
       <c r="B326" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C326" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C326" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D326" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E326" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F326" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G326" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H326" s="33" t="s">
         <v>18</v>
@@ -19555,7 +19563,7 @@
       </c>
       <c r="K326" s="77"/>
       <c r="L326" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M326" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19574,13 +19582,13 @@
         <v>227</v>
       </c>
       <c r="B327" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C327" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C327" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D327" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E327" s="33" t="s">
         <v>45</v>
@@ -19589,7 +19597,7 @@
         <v>45</v>
       </c>
       <c r="G327" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H327" s="33" t="s">
         <v>18</v>
@@ -19603,7 +19611,7 @@
       </c>
       <c r="K327" s="78"/>
       <c r="L327" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M327" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19622,13 +19630,13 @@
         <v>227</v>
       </c>
       <c r="B328" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C328" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C328" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D328" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E328" s="33" t="s">
         <v>26</v>
@@ -19653,7 +19661,7 @@
         <v>27</v>
       </c>
       <c r="L328" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M328" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19672,22 +19680,22 @@
         <v>227</v>
       </c>
       <c r="B329" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C329" s="74" t="s">
         <v>380</v>
       </c>
-      <c r="C329" s="74" t="s">
-        <v>381</v>
-      </c>
       <c r="D329" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E329" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="F329" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G329" s="33" t="s">
         <v>399</v>
-      </c>
-      <c r="F329" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G329" s="33" t="s">
-        <v>400</v>
       </c>
       <c r="H329" s="33" t="s">
         <v>18</v>
@@ -19701,7 +19709,7 @@
       </c>
       <c r="K329" s="75"/>
       <c r="L329" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M329" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19720,19 +19728,19 @@
         <v>227</v>
       </c>
       <c r="B330" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C330" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="D330" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="E330" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="D330" s="74" t="s">
+      <c r="F330" s="33" t="s">
         <v>381</v>
-      </c>
-      <c r="E330" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="F330" s="33" t="s">
-        <v>382</v>
       </c>
       <c r="G330" s="33" t="s">
         <v>26</v>
@@ -19751,7 +19759,7 @@
         <v>27</v>
       </c>
       <c r="L330" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M330" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19770,19 +19778,19 @@
         <v>227</v>
       </c>
       <c r="B331" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C331" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D331" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E331" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F331" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G331" s="33" t="s">
         <v>115</v>
@@ -19799,7 +19807,7 @@
       </c>
       <c r="K331" s="75"/>
       <c r="L331" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M331" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19818,22 +19826,22 @@
         <v>227</v>
       </c>
       <c r="B332" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C332" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D332" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E332" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="F332" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="G332" s="33" t="s">
         <v>385</v>
-      </c>
-      <c r="F332" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="G332" s="33" t="s">
-        <v>386</v>
       </c>
       <c r="H332" s="33" t="s">
         <v>18</v>
@@ -19849,7 +19857,7 @@
         <v>59</v>
       </c>
       <c r="L332" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M332" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19868,19 +19876,19 @@
         <v>227</v>
       </c>
       <c r="B333" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C333" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D333" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E333" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F333" s="33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G333" s="33" t="s">
         <v>176</v>
@@ -19897,7 +19905,7 @@
       </c>
       <c r="K333" s="76"/>
       <c r="L333" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M333" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19916,22 +19924,22 @@
         <v>227</v>
       </c>
       <c r="B334" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C334" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D334" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E334" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="F334" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="G334" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="F334" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="G334" s="33" t="s">
-        <v>389</v>
       </c>
       <c r="H334" s="33" t="s">
         <v>18</v>
@@ -19945,7 +19953,7 @@
       </c>
       <c r="K334" s="77"/>
       <c r="L334" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M334" s="35" t="str">
         <f t="shared" si="21"/>
@@ -19964,22 +19972,22 @@
         <v>227</v>
       </c>
       <c r="B335" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C335" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D335" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E335" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="F335" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="G335" s="33" t="s">
         <v>390</v>
-      </c>
-      <c r="F335" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="G335" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="H335" s="33" t="s">
         <v>18</v>
@@ -19993,7 +20001,7 @@
       </c>
       <c r="K335" s="78"/>
       <c r="L335" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M335" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20012,22 +20020,22 @@
         <v>227</v>
       </c>
       <c r="B336" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C336" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D336" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E336" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F336" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G336" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H336" s="33" t="s">
         <v>18</v>
@@ -20043,7 +20051,7 @@
         <v>59</v>
       </c>
       <c r="L336" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M336" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20062,22 +20070,22 @@
         <v>227</v>
       </c>
       <c r="B337" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C337" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D337" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E337" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F337" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="G337" s="33" t="s">
         <v>393</v>
-      </c>
-      <c r="F337" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="G337" s="33" t="s">
-        <v>394</v>
       </c>
       <c r="H337" s="33" t="s">
         <v>18</v>
@@ -20091,7 +20099,7 @@
       </c>
       <c r="K337" s="76"/>
       <c r="L337" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M337" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20110,22 +20118,22 @@
         <v>227</v>
       </c>
       <c r="B338" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C338" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D338" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E338" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F338" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G338" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H338" s="33" t="s">
         <v>18</v>
@@ -20139,7 +20147,7 @@
       </c>
       <c r="K338" s="77"/>
       <c r="L338" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M338" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20158,13 +20166,13 @@
         <v>227</v>
       </c>
       <c r="B339" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C339" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D339" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E339" s="33" t="s">
         <v>31</v>
@@ -20173,7 +20181,7 @@
         <v>31</v>
       </c>
       <c r="G339" s="33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H339" s="33" t="s">
         <v>18</v>
@@ -20187,7 +20195,7 @@
       </c>
       <c r="K339" s="77"/>
       <c r="L339" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M339" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20206,22 +20214,22 @@
         <v>227</v>
       </c>
       <c r="B340" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C340" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D340" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E340" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F340" s="33" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G340" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H340" s="33" t="s">
         <v>18</v>
@@ -20235,7 +20243,7 @@
       </c>
       <c r="K340" s="77"/>
       <c r="L340" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M340" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20254,13 +20262,13 @@
         <v>227</v>
       </c>
       <c r="B341" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C341" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D341" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E341" s="33" t="s">
         <v>45</v>
@@ -20269,7 +20277,7 @@
         <v>45</v>
       </c>
       <c r="G341" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H341" s="33" t="s">
         <v>18</v>
@@ -20283,7 +20291,7 @@
       </c>
       <c r="K341" s="78"/>
       <c r="L341" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M341" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20302,13 +20310,13 @@
         <v>227</v>
       </c>
       <c r="B342" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C342" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D342" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E342" s="33" t="s">
         <v>26</v>
@@ -20333,7 +20341,7 @@
         <v>27</v>
       </c>
       <c r="L342" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M342" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20352,22 +20360,22 @@
         <v>227</v>
       </c>
       <c r="B343" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C343" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D343" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E343" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="F343" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G343" s="33" t="s">
         <v>399</v>
-      </c>
-      <c r="F343" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="G343" s="33" t="s">
-        <v>400</v>
       </c>
       <c r="H343" s="33" t="s">
         <v>18</v>
@@ -20381,7 +20389,7 @@
       </c>
       <c r="K343" s="79"/>
       <c r="L343" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M343" s="35" t="str">
         <f t="shared" si="21"/>
@@ -20400,22 +20408,22 @@
         <v>13</v>
       </c>
       <c r="B344" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="C344" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D344" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="E344" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C344" s="80" t="s">
-        <v>381</v>
-      </c>
-      <c r="D344" s="80" t="s">
-        <v>381</v>
-      </c>
-      <c r="E344" s="6" t="s">
+      <c r="F344" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G344" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F344" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G344" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H344" s="6" t="s">
         <v>18</v>
@@ -20424,11 +20432,11 @@
         <v>19</v>
       </c>
       <c r="J344" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K344" s="60"/>
       <c r="L344" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M344" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20447,22 +20455,22 @@
         <v>13</v>
       </c>
       <c r="B345" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C345" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D345" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E345" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F345" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G345" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="F345" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G345" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H345" s="6" t="s">
         <v>24</v>
@@ -20478,7 +20486,7 @@
         <v>59</v>
       </c>
       <c r="L345" s="56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M345" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20497,19 +20505,19 @@
         <v>13</v>
       </c>
       <c r="B346" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C346" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D346" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E346" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G346" s="6" t="s">
         <v>176</v>
@@ -20526,7 +20534,7 @@
       </c>
       <c r="K346" s="58"/>
       <c r="L346" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M346" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20545,22 +20553,22 @@
         <v>13</v>
       </c>
       <c r="B347" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C347" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D347" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E347" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F347" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G347" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="F347" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G347" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="H347" s="6" t="s">
         <v>18</v>
@@ -20574,7 +20582,7 @@
       </c>
       <c r="K347" s="59"/>
       <c r="L347" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M347" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20593,22 +20601,22 @@
         <v>13</v>
       </c>
       <c r="B348" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C348" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D348" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E348" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F348" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G348" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="F348" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G348" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="H348" s="6" t="s">
         <v>18</v>
@@ -20622,7 +20630,7 @@
       </c>
       <c r="K348" s="60"/>
       <c r="L348" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M348" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20641,22 +20649,22 @@
         <v>13</v>
       </c>
       <c r="B349" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C349" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D349" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E349" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H349" s="6" t="s">
         <v>18</v>
@@ -20672,7 +20680,7 @@
         <v>59</v>
       </c>
       <c r="L349" s="56" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M349" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20691,22 +20699,22 @@
         <v>13</v>
       </c>
       <c r="B350" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C350" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D350" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E350" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H350" s="6" t="s">
         <v>18</v>
@@ -20720,7 +20728,7 @@
       </c>
       <c r="K350" s="58"/>
       <c r="L350" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M350" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20739,13 +20747,13 @@
         <v>13</v>
       </c>
       <c r="B351" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C351" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D351" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E351" s="6" t="s">
         <v>45</v>
@@ -20754,7 +20762,7 @@
         <v>45</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H351" s="6" t="s">
         <v>24</v>
@@ -20768,7 +20776,7 @@
       </c>
       <c r="K351" s="59"/>
       <c r="L351" s="66" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M351" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20787,22 +20795,22 @@
         <v>13</v>
       </c>
       <c r="B352" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C352" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D352" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E352" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F352" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G352" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F352" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G352" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H352" s="6" t="s">
         <v>18</v>
@@ -20811,11 +20819,11 @@
         <v>19</v>
       </c>
       <c r="J352" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K352" s="60"/>
       <c r="L352" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M352" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20834,22 +20842,22 @@
         <v>13</v>
       </c>
       <c r="B353" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C353" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D353" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E353" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F353" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G353" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="F353" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G353" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H353" s="6" t="s">
         <v>24</v>
@@ -20865,7 +20873,7 @@
         <v>59</v>
       </c>
       <c r="L353" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M353" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20884,19 +20892,19 @@
         <v>13</v>
       </c>
       <c r="B354" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C354" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D354" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E354" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G354" s="6" t="s">
         <v>176</v>
@@ -20913,7 +20921,7 @@
       </c>
       <c r="K354" s="58"/>
       <c r="L354" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M354" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20932,22 +20940,22 @@
         <v>13</v>
       </c>
       <c r="B355" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C355" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D355" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E355" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F355" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G355" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="F355" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G355" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="H355" s="6" t="s">
         <v>18</v>
@@ -20961,7 +20969,7 @@
       </c>
       <c r="K355" s="59"/>
       <c r="L355" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M355" s="14" t="str">
         <f t="shared" si="21"/>
@@ -20980,22 +20988,22 @@
         <v>13</v>
       </c>
       <c r="B356" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C356" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D356" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E356" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G356" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="F356" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G356" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="H356" s="6" t="s">
         <v>18</v>
@@ -21009,7 +21017,7 @@
       </c>
       <c r="K356" s="60"/>
       <c r="L356" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M356" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21028,22 +21036,22 @@
         <v>13</v>
       </c>
       <c r="B357" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C357" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D357" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E357" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G357" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H357" s="6" t="s">
         <v>18</v>
@@ -21059,7 +21067,7 @@
         <v>59</v>
       </c>
       <c r="L357" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M357" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21078,22 +21086,22 @@
         <v>13</v>
       </c>
       <c r="B358" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C358" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D358" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E358" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G358" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H358" s="6" t="s">
         <v>18</v>
@@ -21107,7 +21115,7 @@
       </c>
       <c r="K358" s="58"/>
       <c r="L358" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M358" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21126,13 +21134,13 @@
         <v>13</v>
       </c>
       <c r="B359" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C359" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D359" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E359" s="6" t="s">
         <v>45</v>
@@ -21141,7 +21149,7 @@
         <v>45</v>
       </c>
       <c r="G359" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H359" s="6" t="s">
         <v>24</v>
@@ -21155,7 +21163,7 @@
       </c>
       <c r="K359" s="59"/>
       <c r="L359" s="66" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M359" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21174,35 +21182,35 @@
         <v>13</v>
       </c>
       <c r="B360" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C360" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D360" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E360" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G360" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F360" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G360" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H360" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I360" s="56" t="s">
-        <v>19</v>
+      <c r="I360" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J360" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K360" s="59"/>
       <c r="L360" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M360" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21221,28 +21229,28 @@
         <v>13</v>
       </c>
       <c r="B361" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C361" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D361" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E361" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G361" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H361" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I361" s="56" t="s">
-        <v>19</v>
+      <c r="I361" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J361" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E361," ","-")))</f>
@@ -21250,7 +21258,7 @@
       </c>
       <c r="K361" s="59"/>
       <c r="L361" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M361" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21269,13 +21277,13 @@
         <v>13</v>
       </c>
       <c r="B362" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C362" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D362" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E362" s="6" t="s">
         <v>45</v>
@@ -21284,13 +21292,13 @@
         <v>45</v>
       </c>
       <c r="G362" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H362" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I362" s="56" t="s">
-        <v>19</v>
+      <c r="I362" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J362" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E362," ","-")))</f>
@@ -21298,7 +21306,7 @@
       </c>
       <c r="K362" s="59"/>
       <c r="L362" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M362" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21317,19 +21325,19 @@
         <v>13</v>
       </c>
       <c r="B363" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C363" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D363" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E363" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G363" s="6" t="s">
         <v>115</v>
@@ -21337,8 +21345,8 @@
       <c r="H363" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I363" s="56" t="s">
-        <v>19</v>
+      <c r="I363" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J363" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E363," ","-")))</f>
@@ -21346,7 +21354,7 @@
       </c>
       <c r="K363" s="59"/>
       <c r="L363" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M363" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21365,28 +21373,28 @@
         <v>13</v>
       </c>
       <c r="B364" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C364" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D364" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G364" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H364" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I364" s="56" t="s">
-        <v>19</v>
+      <c r="I364" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J364" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E364," ","-")))</f>
@@ -21394,7 +21402,7 @@
       </c>
       <c r="K364" s="59"/>
       <c r="L364" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M364" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21413,28 +21421,28 @@
         <v>13</v>
       </c>
       <c r="B365" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C365" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D365" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E365" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G365" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H365" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I365" s="56" t="s">
-        <v>19</v>
+      <c r="I365" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J365" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E365," ","-")))</f>
@@ -21442,7 +21450,7 @@
       </c>
       <c r="K365" s="59"/>
       <c r="L365" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M365" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21461,35 +21469,35 @@
         <v>13</v>
       </c>
       <c r="B366" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C366" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D366" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E366" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G366" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F366" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G366" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H366" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I366" s="56" t="s">
-        <v>19</v>
+      <c r="I366" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J366" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K366" s="59"/>
       <c r="L366" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M366" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21508,28 +21516,28 @@
         <v>13</v>
       </c>
       <c r="B367" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C367" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D367" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E367" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G367" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H367" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I367" s="56" t="s">
-        <v>19</v>
+      <c r="I367" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J367" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E367," ","-")))</f>
@@ -21537,7 +21545,7 @@
       </c>
       <c r="K367" s="59"/>
       <c r="L367" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M367" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21556,13 +21564,13 @@
         <v>13</v>
       </c>
       <c r="B368" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C368" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D368" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E368" s="6" t="s">
         <v>45</v>
@@ -21571,13 +21579,13 @@
         <v>45</v>
       </c>
       <c r="G368" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H368" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I368" s="56" t="s">
-        <v>19</v>
+      <c r="I368" s="43" t="s">
+        <v>126</v>
       </c>
       <c r="J368" s="10" t="str">
         <f>CONCATENATE("twct-",LOWER(SUBSTITUTE(E368," ","-")))</f>
@@ -21585,7 +21593,7 @@
       </c>
       <c r="K368" s="59"/>
       <c r="L368" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M368" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21604,19 +21612,19 @@
         <v>13</v>
       </c>
       <c r="B369" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C369" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D369" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E369" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G369" s="6" t="s">
         <v>115</v>
@@ -21633,7 +21641,7 @@
       </c>
       <c r="K369" s="59"/>
       <c r="L369" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M369" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21652,22 +21660,22 @@
         <v>13</v>
       </c>
       <c r="B370" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C370" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D370" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E370" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G370" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H370" s="6" t="s">
         <v>24</v>
@@ -21681,7 +21689,7 @@
       </c>
       <c r="K370" s="59"/>
       <c r="L370" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M370" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21700,22 +21708,22 @@
         <v>13</v>
       </c>
       <c r="B371" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C371" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D371" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E371" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G371" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H371" s="6" t="s">
         <v>24</v>
@@ -21729,7 +21737,7 @@
       </c>
       <c r="K371" s="59"/>
       <c r="L371" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M371" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21748,22 +21756,22 @@
         <v>13</v>
       </c>
       <c r="B372" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C372" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D372" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E372" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G372" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H372" s="6" t="s">
         <v>24</v>
@@ -21772,11 +21780,11 @@
         <v>126</v>
       </c>
       <c r="J372" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K372" s="59"/>
       <c r="L372" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M372" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21795,22 +21803,22 @@
         <v>13</v>
       </c>
       <c r="B373" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C373" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D373" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E373" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G373" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H373" s="6" t="s">
         <v>24</v>
@@ -21824,7 +21832,7 @@
       </c>
       <c r="K373" s="60"/>
       <c r="L373" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M373" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21843,19 +21851,19 @@
         <v>13</v>
       </c>
       <c r="B374" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C374" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D374" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="E374" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D374" s="80" t="s">
+      <c r="F374" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="E374" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F374" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>26</v>
@@ -21874,7 +21882,7 @@
         <v>27</v>
       </c>
       <c r="L374" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M374" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21893,19 +21901,19 @@
         <v>13</v>
       </c>
       <c r="B375" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C375" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D375" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E375" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G375" s="6" t="s">
         <v>115</v>
@@ -21922,7 +21930,7 @@
       </c>
       <c r="K375" s="81"/>
       <c r="L375" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M375" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21941,22 +21949,22 @@
         <v>13</v>
       </c>
       <c r="B376" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C376" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D376" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E376" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F376" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G376" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="F376" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G376" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H376" s="13" t="s">
         <v>24</v>
@@ -21972,7 +21980,7 @@
         <v>59</v>
       </c>
       <c r="L376" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M376" s="14" t="str">
         <f t="shared" si="21"/>
@@ -21991,19 +21999,19 @@
         <v>13</v>
       </c>
       <c r="B377" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C377" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D377" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E377" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G377" s="6" t="s">
         <v>176</v>
@@ -22020,7 +22028,7 @@
       </c>
       <c r="K377" s="58"/>
       <c r="L377" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M377" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22039,22 +22047,22 @@
         <v>13</v>
       </c>
       <c r="B378" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C378" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D378" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E378" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F378" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G378" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="F378" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G378" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="H378" s="13" t="s">
         <v>24</v>
@@ -22068,7 +22076,7 @@
       </c>
       <c r="K378" s="59"/>
       <c r="L378" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M378" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22087,22 +22095,22 @@
         <v>13</v>
       </c>
       <c r="B379" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C379" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D379" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E379" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F379" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G379" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="F379" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G379" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>24</v>
@@ -22116,7 +22124,7 @@
       </c>
       <c r="K379" s="60"/>
       <c r="L379" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M379" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22135,22 +22143,22 @@
         <v>13</v>
       </c>
       <c r="B380" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C380" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D380" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E380" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G380" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H380" s="13" t="s">
         <v>24</v>
@@ -22166,7 +22174,7 @@
         <v>59</v>
       </c>
       <c r="L380" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M380" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22185,22 +22193,22 @@
         <v>13</v>
       </c>
       <c r="B381" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C381" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D381" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E381" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F381" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G381" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="F381" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G381" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>24</v>
@@ -22214,7 +22222,7 @@
       </c>
       <c r="K381" s="58"/>
       <c r="L381" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M381" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22233,22 +22241,22 @@
         <v>13</v>
       </c>
       <c r="B382" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C382" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D382" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E382" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G382" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H382" s="13" t="s">
         <v>24</v>
@@ -22262,7 +22270,7 @@
       </c>
       <c r="K382" s="59"/>
       <c r="L382" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M382" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22281,13 +22289,13 @@
         <v>13</v>
       </c>
       <c r="B383" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C383" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D383" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E383" s="6" t="s">
         <v>31</v>
@@ -22296,7 +22304,7 @@
         <v>31</v>
       </c>
       <c r="G383" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>24</v>
@@ -22310,7 +22318,7 @@
       </c>
       <c r="K383" s="59"/>
       <c r="L383" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M383" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22329,22 +22337,22 @@
         <v>13</v>
       </c>
       <c r="B384" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C384" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D384" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E384" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G384" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H384" s="13" t="s">
         <v>24</v>
@@ -22358,7 +22366,7 @@
       </c>
       <c r="K384" s="59"/>
       <c r="L384" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M384" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22377,13 +22385,13 @@
         <v>13</v>
       </c>
       <c r="B385" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C385" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D385" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E385" s="6" t="s">
         <v>45</v>
@@ -22392,7 +22400,7 @@
         <v>45</v>
       </c>
       <c r="G385" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>24</v>
@@ -22406,7 +22414,7 @@
       </c>
       <c r="K385" s="59"/>
       <c r="L385" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M385" s="14" t="str">
         <f t="shared" si="21"/>
@@ -22425,22 +22433,22 @@
         <v>13</v>
       </c>
       <c r="B386" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C386" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D386" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E386" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G386" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H386" s="61" t="s">
         <v>24</v>
@@ -22454,7 +22462,7 @@
       </c>
       <c r="K386" s="59"/>
       <c r="L386" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M386" s="14" t="str">
         <f t="shared" ref="M386:M410" si="27">B386</f>
@@ -22473,19 +22481,19 @@
         <v>13</v>
       </c>
       <c r="B387" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C387" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D387" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E387" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G387" s="6" t="s">
         <v>115</v>
@@ -22502,7 +22510,7 @@
       </c>
       <c r="K387" s="59"/>
       <c r="L387" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M387" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22521,22 +22529,22 @@
         <v>13</v>
       </c>
       <c r="B388" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C388" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D388" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E388" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G388" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H388" s="6" t="s">
         <v>24</v>
@@ -22550,7 +22558,7 @@
       </c>
       <c r="K388" s="59"/>
       <c r="L388" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M388" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22569,22 +22577,22 @@
         <v>13</v>
       </c>
       <c r="B389" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C389" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D389" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E389" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G389" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H389" s="6" t="s">
         <v>24</v>
@@ -22598,7 +22606,7 @@
       </c>
       <c r="K389" s="59"/>
       <c r="L389" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M389" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22617,22 +22625,22 @@
         <v>13</v>
       </c>
       <c r="B390" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C390" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D390" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E390" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G390" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H390" s="6" t="s">
         <v>24</v>
@@ -22641,11 +22649,11 @@
         <v>126</v>
       </c>
       <c r="J390" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K390" s="59"/>
       <c r="L390" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M390" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22664,22 +22672,22 @@
         <v>13</v>
       </c>
       <c r="B391" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C391" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D391" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E391" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G391" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H391" s="6" t="s">
         <v>24</v>
@@ -22693,7 +22701,7 @@
       </c>
       <c r="K391" s="60"/>
       <c r="L391" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M391" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22712,19 +22720,19 @@
         <v>13</v>
       </c>
       <c r="B392" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C392" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D392" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="E392" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D392" s="80" t="s">
+      <c r="F392" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="E392" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="F392" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="G392" s="6" t="s">
         <v>26</v>
@@ -22743,7 +22751,7 @@
         <v>27</v>
       </c>
       <c r="L392" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M392" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22762,19 +22770,19 @@
         <v>13</v>
       </c>
       <c r="B393" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C393" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D393" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E393" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G393" s="6" t="s">
         <v>115</v>
@@ -22791,7 +22799,7 @@
       </c>
       <c r="K393" s="81"/>
       <c r="L393" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M393" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22810,22 +22818,22 @@
         <v>13</v>
       </c>
       <c r="B394" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C394" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D394" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E394" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F394" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="G394" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="F394" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G394" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="H394" s="13" t="s">
         <v>24</v>
@@ -22841,7 +22849,7 @@
         <v>59</v>
       </c>
       <c r="L394" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M394" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22860,19 +22868,19 @@
         <v>13</v>
       </c>
       <c r="B395" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C395" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D395" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E395" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>176</v>
@@ -22889,7 +22897,7 @@
       </c>
       <c r="K395" s="58"/>
       <c r="L395" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M395" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22908,22 +22916,22 @@
         <v>13</v>
       </c>
       <c r="B396" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C396" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D396" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E396" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F396" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G396" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="F396" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="G396" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="H396" s="13" t="s">
         <v>24</v>
@@ -22937,7 +22945,7 @@
       </c>
       <c r="K396" s="59"/>
       <c r="L396" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M396" s="14" t="str">
         <f t="shared" si="27"/>
@@ -22956,22 +22964,22 @@
         <v>13</v>
       </c>
       <c r="B397" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C397" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D397" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E397" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F397" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="G397" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="F397" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G397" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>24</v>
@@ -22985,7 +22993,7 @@
       </c>
       <c r="K397" s="60"/>
       <c r="L397" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M397" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23004,22 +23012,22 @@
         <v>13</v>
       </c>
       <c r="B398" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C398" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D398" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E398" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G398" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H398" s="13" t="s">
         <v>24</v>
@@ -23035,7 +23043,7 @@
         <v>59</v>
       </c>
       <c r="L398" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M398" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23054,22 +23062,22 @@
         <v>13</v>
       </c>
       <c r="B399" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C399" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D399" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E399" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F399" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G399" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="F399" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="G399" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>24</v>
@@ -23083,7 +23091,7 @@
       </c>
       <c r="K399" s="58"/>
       <c r="L399" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M399" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23102,22 +23110,22 @@
         <v>13</v>
       </c>
       <c r="B400" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C400" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D400" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E400" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G400" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H400" s="13" t="s">
         <v>24</v>
@@ -23131,7 +23139,7 @@
       </c>
       <c r="K400" s="59"/>
       <c r="L400" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M400" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23150,13 +23158,13 @@
         <v>13</v>
       </c>
       <c r="B401" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C401" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D401" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E401" s="6" t="s">
         <v>31</v>
@@ -23165,7 +23173,7 @@
         <v>31</v>
       </c>
       <c r="G401" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>24</v>
@@ -23179,7 +23187,7 @@
       </c>
       <c r="K401" s="59"/>
       <c r="L401" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M401" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23198,22 +23206,22 @@
         <v>13</v>
       </c>
       <c r="B402" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C402" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D402" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E402" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G402" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H402" s="13" t="s">
         <v>24</v>
@@ -23227,7 +23235,7 @@
       </c>
       <c r="K402" s="59"/>
       <c r="L402" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M402" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23246,13 +23254,13 @@
         <v>13</v>
       </c>
       <c r="B403" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C403" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D403" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E403" s="6" t="s">
         <v>45</v>
@@ -23261,7 +23269,7 @@
         <v>45</v>
       </c>
       <c r="G403" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>24</v>
@@ -23275,7 +23283,7 @@
       </c>
       <c r="K403" s="59"/>
       <c r="L403" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M403" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23294,22 +23302,22 @@
         <v>13</v>
       </c>
       <c r="B404" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C404" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D404" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E404" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G404" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H404" s="61" t="s">
         <v>24</v>
@@ -23323,7 +23331,7 @@
       </c>
       <c r="K404" s="59"/>
       <c r="L404" s="66" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M404" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23342,22 +23350,22 @@
         <v>13</v>
       </c>
       <c r="B405" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E405" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F405" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G405" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F405" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G405" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H405" s="6" t="s">
         <v>18</v>
@@ -23366,11 +23374,11 @@
         <v>19</v>
       </c>
       <c r="J405" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K405" s="59"/>
       <c r="L405" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M405" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23389,19 +23397,19 @@
         <v>13</v>
       </c>
       <c r="B406" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E406" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G406" s="6" t="s">
         <v>76</v>
@@ -23418,7 +23426,7 @@
       </c>
       <c r="K406" s="59"/>
       <c r="L406" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M406" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23437,13 +23445,13 @@
         <v>13</v>
       </c>
       <c r="B407" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E407" s="6" t="s">
         <v>45</v>
@@ -23452,7 +23460,7 @@
         <v>45</v>
       </c>
       <c r="G407" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H407" s="6" t="s">
         <v>24</v>
@@ -23466,7 +23474,7 @@
       </c>
       <c r="K407" s="59"/>
       <c r="L407" s="66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M407" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23485,22 +23493,22 @@
         <v>13</v>
       </c>
       <c r="B408" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E408" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F408" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G408" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="F408" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G408" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H408" s="6" t="s">
         <v>18</v>
@@ -23509,11 +23517,11 @@
         <v>19</v>
       </c>
       <c r="J408" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K408" s="59"/>
       <c r="L408" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M408" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23532,19 +23540,19 @@
         <v>13</v>
       </c>
       <c r="B409" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E409" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G409" s="6" t="s">
         <v>76</v>
@@ -23561,7 +23569,7 @@
       </c>
       <c r="K409" s="59"/>
       <c r="L409" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M409" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23580,13 +23588,13 @@
         <v>13</v>
       </c>
       <c r="B410" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E410" s="6" t="s">
         <v>45</v>
@@ -23595,7 +23603,7 @@
         <v>45</v>
       </c>
       <c r="G410" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H410" s="6" t="s">
         <v>24</v>
@@ -23609,7 +23617,7 @@
       </c>
       <c r="K410" s="59"/>
       <c r="L410" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M410" s="14" t="str">
         <f t="shared" si="27"/>
@@ -23624,6 +23632,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:IV410" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
@@ -23654,7 +23663,7 @@
         <v>228</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C1" s="10" t="str">
         <f>VLOOKUP(A1,$E$2:$G$108,2)</f>
@@ -23670,7 +23679,7 @@
         <v>233</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>VLOOKUP(A2,$E$2:$G$108,2)</f>
@@ -23678,10 +23687,10 @@
       </c>
       <c r="D2" s="59"/>
       <c r="E2" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="G2" s="59"/>
     </row>
@@ -23690,17 +23699,17 @@
         <v>235</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="G3" s="59"/>
     </row>
@@ -23709,17 +23718,17 @@
         <v>237</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="G4" s="59"/>
     </row>
@@ -23728,17 +23737,17 @@
         <v>239</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" s="59"/>
       <c r="E5" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="G5" s="59"/>
     </row>
@@ -23747,17 +23756,17 @@
         <v>241</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="G6" s="59"/>
     </row>
@@ -23766,7 +23775,7 @@
         <v>243</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C7" s="10" t="str">
         <f>VLOOKUP(A7,$E$2:$G$108,2)</f>
@@ -23774,10 +23783,10 @@
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="G7" s="59"/>
     </row>
@@ -23786,7 +23795,7 @@
         <v>245</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" s="10" t="str">
         <f>VLOOKUP(A8,$E$2:$G$108,2)</f>
@@ -23794,10 +23803,10 @@
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="G8" s="59"/>
     </row>
@@ -23806,7 +23815,7 @@
         <v>247</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="10" t="str">
         <f>VLOOKUP(A9,$E$2:$G$108,2)</f>
@@ -23814,10 +23823,10 @@
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="G9" s="59"/>
     </row>
@@ -23826,7 +23835,7 @@
         <v>249</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C10" s="10" t="str">
         <f>VLOOKUP(A10,$E$2:$G$108,2)</f>
@@ -23834,10 +23843,10 @@
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>450</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>451</v>
       </c>
       <c r="G10" s="59"/>
     </row>
@@ -23846,7 +23855,7 @@
         <v>251</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C11" s="10" t="str">
         <f>VLOOKUP(A11,$E$2:$G$108,2)</f>
@@ -23854,10 +23863,10 @@
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="G11" s="59"/>
     </row>
@@ -23866,17 +23875,17 @@
         <v>253</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>456</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>457</v>
       </c>
       <c r="G12" s="59"/>
     </row>
@@ -23885,7 +23894,7 @@
         <v>255</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C13" s="10" t="str">
         <f t="shared" ref="C13:C18" si="0">VLOOKUP(A13,$E$2:$G$108,2)</f>
@@ -23893,10 +23902,10 @@
       </c>
       <c r="D13" s="59"/>
       <c r="E13" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="G13" s="59"/>
     </row>
@@ -23905,7 +23914,7 @@
         <v>249</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -23913,10 +23922,10 @@
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>462</v>
       </c>
       <c r="G14" s="59"/>
     </row>
@@ -23925,7 +23934,7 @@
         <v>249</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -23933,10 +23942,10 @@
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="G15" s="59"/>
     </row>
@@ -23945,7 +23954,7 @@
         <v>251</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -23953,10 +23962,10 @@
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>465</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>466</v>
       </c>
       <c r="G16" s="59"/>
     </row>
@@ -23965,7 +23974,7 @@
         <v>251</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
@@ -23973,10 +23982,10 @@
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>468</v>
       </c>
       <c r="G17" s="59"/>
     </row>
@@ -23985,7 +23994,7 @@
         <v>251</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
@@ -23993,10 +24002,10 @@
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="G18" s="59"/>
     </row>
@@ -24012,10 +24021,10 @@
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>471</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>472</v>
       </c>
       <c r="G19" s="59"/>
     </row>
@@ -24031,10 +24040,10 @@
       </c>
       <c r="D20" s="59"/>
       <c r="E20" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>474</v>
       </c>
       <c r="G20" s="59"/>
     </row>
@@ -24050,10 +24059,10 @@
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>476</v>
       </c>
       <c r="G21" s="59"/>
     </row>
@@ -24069,10 +24078,10 @@
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>478</v>
       </c>
       <c r="G22" s="59"/>
     </row>
@@ -24088,10 +24097,10 @@
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="G23" s="59"/>
     </row>
@@ -24107,10 +24116,10 @@
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>481</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>482</v>
       </c>
       <c r="G24" s="59"/>
     </row>
@@ -24126,10 +24135,10 @@
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>484</v>
       </c>
       <c r="G25" s="59"/>
     </row>
@@ -24145,10 +24154,10 @@
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="G26" s="59"/>
     </row>
@@ -24164,10 +24173,10 @@
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>487</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="G27" s="59"/>
     </row>
@@ -24183,10 +24192,10 @@
       </c>
       <c r="D28" s="59"/>
       <c r="E28" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>489</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>490</v>
       </c>
       <c r="G28" s="59"/>
     </row>
@@ -24202,10 +24211,10 @@
       </c>
       <c r="D29" s="59"/>
       <c r="E29" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>491</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>492</v>
       </c>
       <c r="G29" s="59"/>
     </row>
@@ -24214,7 +24223,7 @@
         <v>228</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C30" s="10" t="str">
         <f>VLOOKUP(A30,$E$2:$G$108,2)</f>
@@ -24222,10 +24231,10 @@
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>493</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>494</v>
       </c>
       <c r="G30" s="59"/>
     </row>
@@ -24234,17 +24243,17 @@
         <v>274</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>495</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="G31" s="59"/>
     </row>
@@ -24253,7 +24262,7 @@
         <v>245</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C32" s="10" t="str">
         <f t="shared" ref="C32:C50" si="1">VLOOKUP(A32,$E$2:$G$108,2)</f>
@@ -24261,10 +24270,10 @@
       </c>
       <c r="D32" s="59"/>
       <c r="E32" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>498</v>
       </c>
       <c r="G32" s="59"/>
     </row>
@@ -24273,7 +24282,7 @@
         <v>247</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C33" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24281,10 +24290,10 @@
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>499</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>500</v>
       </c>
       <c r="G33" s="59"/>
     </row>
@@ -24293,7 +24302,7 @@
         <v>249</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C34" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24301,10 +24310,10 @@
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>502</v>
       </c>
       <c r="G34" s="59"/>
     </row>
@@ -24313,7 +24322,7 @@
         <v>251</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C35" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24321,10 +24330,10 @@
       </c>
       <c r="D35" s="59"/>
       <c r="E35" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>503</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>504</v>
       </c>
       <c r="G35" s="59"/>
     </row>
@@ -24333,7 +24342,7 @@
         <v>275</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C36" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24341,10 +24350,10 @@
       </c>
       <c r="D36" s="59"/>
       <c r="E36" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>506</v>
       </c>
       <c r="G36" s="59"/>
     </row>
@@ -24353,7 +24362,7 @@
         <v>255</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C37" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24361,10 +24370,10 @@
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>507</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>508</v>
       </c>
       <c r="G37" s="59"/>
     </row>
@@ -24373,7 +24382,7 @@
         <v>276</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C38" s="10" t="e">
         <f t="shared" si="1"/>
@@ -24381,10 +24390,10 @@
       </c>
       <c r="D38" s="59"/>
       <c r="E38" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>511</v>
       </c>
       <c r="G38" s="59"/>
     </row>
@@ -24393,7 +24402,7 @@
         <v>276</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C39" s="10" t="e">
         <f t="shared" si="1"/>
@@ -24401,10 +24410,10 @@
       </c>
       <c r="D39" s="59"/>
       <c r="E39" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="G39" s="59"/>
     </row>
@@ -24413,7 +24422,7 @@
         <v>278</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C40" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24421,10 +24430,10 @@
       </c>
       <c r="D40" s="59"/>
       <c r="E40" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>515</v>
       </c>
       <c r="G40" s="59"/>
     </row>
@@ -24433,7 +24442,7 @@
         <v>228</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C41" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24441,10 +24450,10 @@
       </c>
       <c r="D41" s="59"/>
       <c r="E41" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>516</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="G41" s="59"/>
     </row>
@@ -24453,7 +24462,7 @@
         <v>228</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C42" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24461,19 +24470,19 @@
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>519</v>
       </c>
       <c r="G42" s="59"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1">
       <c r="A43" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C43" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24481,19 +24490,19 @@
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>520</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>521</v>
       </c>
       <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1">
       <c r="A44" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C44" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24501,10 +24510,10 @@
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>522</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>523</v>
       </c>
       <c r="G44" s="59"/>
     </row>
@@ -24513,7 +24522,7 @@
         <v>245</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C45" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24521,10 +24530,10 @@
       </c>
       <c r="D45" s="59"/>
       <c r="E45" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="G45" s="59"/>
     </row>
@@ -24533,7 +24542,7 @@
         <v>245</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C46" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24541,10 +24550,10 @@
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>526</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="G46" s="59"/>
     </row>
@@ -24553,7 +24562,7 @@
         <v>247</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C47" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24561,10 +24570,10 @@
       </c>
       <c r="D47" s="59"/>
       <c r="E47" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>529</v>
       </c>
       <c r="G47" s="59"/>
     </row>
@@ -24573,7 +24582,7 @@
         <v>247</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C48" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24581,10 +24590,10 @@
       </c>
       <c r="D48" s="59"/>
       <c r="E48" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>531</v>
       </c>
       <c r="G48" s="59"/>
     </row>
@@ -24593,7 +24602,7 @@
         <v>249</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C49" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24601,10 +24610,10 @@
       </c>
       <c r="D49" s="59"/>
       <c r="E49" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>532</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>533</v>
       </c>
       <c r="G49" s="59"/>
     </row>
@@ -24613,7 +24622,7 @@
         <v>249</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C50" s="10" t="str">
         <f t="shared" si="1"/>
@@ -24621,48 +24630,48 @@
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>534</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>535</v>
       </c>
       <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D51" s="59"/>
       <c r="E51" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="F51" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="F52" s="10" t="s">
         <v>538</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="G52" s="59"/>
     </row>
@@ -24671,7 +24680,7 @@
         <v>255</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C53" s="10" t="str">
         <f t="shared" ref="C53:C74" si="2">VLOOKUP(A53,$E$2:$G$108,2)</f>
@@ -24679,10 +24688,10 @@
       </c>
       <c r="D53" s="59"/>
       <c r="E53" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="F53" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>541</v>
       </c>
       <c r="G53" s="59"/>
     </row>
@@ -24691,7 +24700,7 @@
         <v>255</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C54" s="10" t="str">
         <f t="shared" si="2"/>
@@ -24699,10 +24708,10 @@
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="F54" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="G54" s="59"/>
     </row>
@@ -24711,7 +24720,7 @@
         <v>276</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C55" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24719,10 +24728,10 @@
       </c>
       <c r="D55" s="59"/>
       <c r="E55" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>544</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>545</v>
       </c>
       <c r="G55" s="59"/>
     </row>
@@ -24731,7 +24740,7 @@
         <v>276</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C56" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24739,10 +24748,10 @@
       </c>
       <c r="D56" s="59"/>
       <c r="E56" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>547</v>
       </c>
       <c r="G56" s="59"/>
     </row>
@@ -24751,7 +24760,7 @@
         <v>278</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C57" s="10" t="str">
         <f t="shared" si="2"/>
@@ -24759,10 +24768,10 @@
       </c>
       <c r="D57" s="59"/>
       <c r="E57" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>549</v>
       </c>
       <c r="G57" s="59"/>
     </row>
@@ -24771,7 +24780,7 @@
         <v>278</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C58" s="10" t="str">
         <f t="shared" si="2"/>
@@ -24779,10 +24788,10 @@
       </c>
       <c r="D58" s="59"/>
       <c r="E58" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="F58" s="10" t="s">
         <v>550</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="G58" s="59"/>
     </row>
@@ -24791,7 +24800,7 @@
         <v>275</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C59" s="10" t="str">
         <f t="shared" si="2"/>
@@ -24799,10 +24808,10 @@
       </c>
       <c r="D59" s="59"/>
       <c r="E59" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>553</v>
       </c>
       <c r="G59" s="59"/>
     </row>
@@ -24811,7 +24820,7 @@
         <v>275</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C60" s="10" t="str">
         <f t="shared" si="2"/>
@@ -24819,19 +24828,19 @@
       </c>
       <c r="D60" s="59"/>
       <c r="E60" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>555</v>
       </c>
       <c r="G60" s="59"/>
     </row>
     <row r="61" spans="1:7" ht="18" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C61" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24839,19 +24848,19 @@
       </c>
       <c r="D61" s="59"/>
       <c r="E61" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>557</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>558</v>
       </c>
       <c r="G61" s="59"/>
     </row>
     <row r="62" spans="1:7" ht="18" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C62" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24859,19 +24868,19 @@
       </c>
       <c r="D62" s="59"/>
       <c r="E62" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G62" s="59"/>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C63" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24882,16 +24891,16 @@
         <v>249</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7" ht="18" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C64" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24902,16 +24911,16 @@
         <v>247</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7" ht="18" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C65" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24922,16 +24931,16 @@
         <v>251</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G65" s="59"/>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C66" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24942,16 +24951,16 @@
         <v>275</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G66" s="59"/>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C67" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24959,19 +24968,19 @@
       </c>
       <c r="D67" s="59"/>
       <c r="E67" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G67" s="59"/>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1">
       <c r="A68" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C68" s="10" t="e">
         <f t="shared" si="2"/>
@@ -24982,16 +24991,16 @@
         <v>228</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G68" s="59"/>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1">
       <c r="A69" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C69" s="10" t="e">
         <f t="shared" si="2"/>
@@ -25002,16 +25011,16 @@
         <v>233</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G69" s="59"/>
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C70" s="10" t="e">
         <f t="shared" si="2"/>
@@ -25022,16 +25031,16 @@
         <v>243</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G70" s="59"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C71" s="10" t="e">
         <f t="shared" si="2"/>
@@ -25042,16 +25051,16 @@
         <v>245</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G71" s="59"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C72" s="10" t="e">
         <f t="shared" si="2"/>
@@ -25059,19 +25068,19 @@
       </c>
       <c r="D72" s="59"/>
       <c r="E72" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G72" s="59"/>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C73" s="10" t="e">
         <f t="shared" si="2"/>
@@ -25079,19 +25088,19 @@
       </c>
       <c r="D73" s="59"/>
       <c r="E73" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G73" s="59"/>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C74" s="10" t="e">
         <f t="shared" si="2"/>
@@ -25102,273 +25111,273 @@
         <v>278</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G74" s="59"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D75" s="59"/>
       <c r="E75" s="10" t="s">
         <v>276</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G75" s="59"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1">
       <c r="A76" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D76" s="59"/>
       <c r="E76" s="10" t="s">
         <v>255</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G76" s="59"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D77" s="59"/>
       <c r="E77" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>563</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>564</v>
       </c>
       <c r="G77" s="59"/>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D78" s="59"/>
       <c r="E78" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>566</v>
       </c>
       <c r="G78" s="59"/>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1">
       <c r="A79" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G79" s="59"/>
     </row>
     <row r="80" spans="1:7" ht="18" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D80" s="59"/>
       <c r="E80" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>568</v>
       </c>
       <c r="G80" s="59"/>
     </row>
     <row r="81" spans="1:7" ht="18" customHeight="1">
       <c r="A81" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D81" s="59"/>
       <c r="E81" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G81" s="59"/>
     </row>
     <row r="82" spans="1:7" ht="18" customHeight="1">
       <c r="A82" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D82" s="59"/>
       <c r="E82" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>570</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>571</v>
       </c>
       <c r="G82" s="59"/>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1">
       <c r="A83" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D83" s="59"/>
       <c r="E83" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>572</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>573</v>
       </c>
       <c r="G83" s="59"/>
     </row>
     <row r="84" spans="1:7" ht="18" customHeight="1">
       <c r="A84" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D84" s="59"/>
       <c r="E84" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>574</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="G84" s="59"/>
     </row>
     <row r="85" spans="1:7" ht="18" customHeight="1">
       <c r="A85" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D85" s="59"/>
       <c r="E85" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>576</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>577</v>
       </c>
       <c r="G85" s="59"/>
     </row>
     <row r="86" spans="1:7" ht="18" customHeight="1">
       <c r="A86" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D86" s="59"/>
       <c r="E86" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="F86" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="G86" s="59"/>
     </row>
     <row r="87" spans="1:7" ht="18" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D87" s="59"/>
       <c r="E87" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>581</v>
       </c>
       <c r="G87" s="59"/>
     </row>
     <row r="88" spans="1:7" ht="18" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D88" s="59"/>
       <c r="E88" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>582</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>583</v>
       </c>
       <c r="G88" s="59"/>
     </row>
@@ -25378,10 +25387,10 @@
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
       <c r="E89" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>585</v>
       </c>
       <c r="G89" s="59"/>
     </row>
@@ -25391,10 +25400,10 @@
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
       <c r="E90" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="F90" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>587</v>
       </c>
       <c r="G90" s="59"/>
     </row>
@@ -25404,10 +25413,10 @@
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
       <c r="E91" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>588</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>589</v>
       </c>
       <c r="G91" s="59"/>
     </row>
@@ -25417,10 +25426,10 @@
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
       <c r="E92" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="F92" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>591</v>
       </c>
       <c r="G92" s="59"/>
     </row>
@@ -25430,10 +25439,10 @@
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
       <c r="E93" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>592</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>593</v>
       </c>
       <c r="G93" s="59"/>
     </row>
@@ -25443,10 +25452,10 @@
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
       <c r="E94" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="F94" s="10" t="s">
         <v>594</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>595</v>
       </c>
       <c r="G94" s="59"/>
     </row>
@@ -25456,10 +25465,10 @@
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
       <c r="E95" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>597</v>
       </c>
       <c r="G95" s="59"/>
     </row>
@@ -25469,10 +25478,10 @@
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
       <c r="E96" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="F96" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>599</v>
       </c>
       <c r="G96" s="59"/>
     </row>
@@ -25482,10 +25491,10 @@
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
       <c r="E97" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>601</v>
       </c>
       <c r="G97" s="59"/>
     </row>
@@ -25495,10 +25504,10 @@
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
       <c r="E98" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="F98" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="G98" s="59"/>
     </row>
@@ -25508,10 +25517,10 @@
       <c r="C99" s="59"/>
       <c r="D99" s="59"/>
       <c r="E99" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>604</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>605</v>
       </c>
       <c r="G99" s="59"/>
     </row>
@@ -25521,10 +25530,10 @@
       <c r="C100" s="59"/>
       <c r="D100" s="59"/>
       <c r="E100" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>606</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>607</v>
       </c>
       <c r="G100" s="59"/>
     </row>
@@ -25534,10 +25543,10 @@
       <c r="C101" s="59"/>
       <c r="D101" s="59"/>
       <c r="E101" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="G101" s="59"/>
     </row>
@@ -25547,10 +25556,10 @@
       <c r="C102" s="59"/>
       <c r="D102" s="59"/>
       <c r="E102" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>611</v>
       </c>
       <c r="G102" s="59"/>
     </row>
@@ -25560,10 +25569,10 @@
       <c r="C103" s="59"/>
       <c r="D103" s="59"/>
       <c r="E103" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>612</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>613</v>
       </c>
       <c r="G103" s="59"/>
     </row>
@@ -25573,10 +25582,10 @@
       <c r="C104" s="59"/>
       <c r="D104" s="59"/>
       <c r="E104" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>614</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>615</v>
       </c>
       <c r="G104" s="59"/>
     </row>
@@ -25586,10 +25595,10 @@
       <c r="C105" s="59"/>
       <c r="D105" s="59"/>
       <c r="E105" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>616</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>617</v>
       </c>
       <c r="G105" s="59"/>
     </row>
@@ -25599,10 +25608,10 @@
       <c r="C106" s="59"/>
       <c r="D106" s="59"/>
       <c r="E106" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>618</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>619</v>
       </c>
       <c r="G106" s="59"/>
     </row>
@@ -25612,10 +25621,10 @@
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
       <c r="E107" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>620</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="G107" s="59"/>
     </row>
@@ -25625,10 +25634,10 @@
       <c r="C108" s="59"/>
       <c r="D108" s="59"/>
       <c r="E108" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>623</v>
       </c>
       <c r="G108" s="59"/>
     </row>
